--- a/References/Potager_final.xlsx
+++ b/References/Potager_final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/czarinahheartybacarro/Documents/@All formation FR/@La nurserie formation/@Potager/References/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/czarinahheartybacarro/Documents/@All formation FR/@La nurserie formation/@Potager/Github/nurserie-des-jardiniers/References/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547C00BC-E834-2E48-9DEA-D478EEEDBDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D8C68A-9539-E74C-9270-9DA6D8DCF7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="15860" xr2:uid="{087EDECF-F902-BB43-A2ED-34E69394B6C5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="269">
   <si>
     <t>LEGUMES</t>
   </si>
@@ -745,6 +745,105 @@
   </si>
   <si>
     <t>IMAGE3</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/05-Aubergine.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/05-Bette1.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/06-Betterave.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/07-Blette.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/08-Brocoli.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/09-Carotte.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/10-Céleri.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/11-Chou.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/12-Chou-fleur.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/13-Concombre.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/14-Courge.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/15 Courgette.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/16-Cornichon.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/17-Endive.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/18-épinard.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/19-Fenouil.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/20-Fève.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/21-Fraisier.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/22-Haricot.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/23-Laitue.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/24-Mâche.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/25-Maïs.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/26-Melon.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/27-Navet.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/28-Oignon.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/29-Panais.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/30-petit-pois.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/31-Piment.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/32-Poireau.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/33-pomme de terre.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/34-Radis.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/35-Salade.png</t>
+  </si>
+  <si>
+    <t>images/Potager-all légumes/36-tomates.png</t>
   </si>
 </sst>
 </file>
@@ -812,16 +911,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -838,6 +934,9 @@
         <name val="ArialNarrow"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -860,7 +959,7 @@
     <tableColumn id="1" xr3:uid="{DE306090-04F4-6A47-900D-274FCF34E05E}" name="LEGUMES"/>
     <tableColumn id="5" xr3:uid="{9FD61759-5C4A-1642-885A-A9ADF51F7CA5}" name="IMAGE"/>
     <tableColumn id="6" xr3:uid="{749A5054-239B-AD42-8ED0-6D44AD88023D}" name="IMAGE2"/>
-    <tableColumn id="8" xr3:uid="{59BFE3B5-ACA3-2C4E-81F4-CE0923F55C48}" name="IMAGE3" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{59BFE3B5-ACA3-2C4E-81F4-CE0923F55C48}" name="IMAGE3" dataDxfId="1">
       <calculatedColumnFormula>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{8B59C03E-897A-4549-ABAD-337CBC2ABEBB}" name="DÉFINITION"/>
@@ -885,7 +984,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD7E8A78-7011-F542-A407-F107A58979D5}" name="Table1" displayName="Table1" ref="B1:S37" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD7E8A78-7011-F542-A407-F107A58979D5}" name="Table1" displayName="Table1" ref="B1:S37" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="B1:S37" xr:uid="{FD7E8A78-7011-F542-A407-F107A58979D5}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{02ACEF33-BDD0-F24A-9FFA-E011BFF9C005}" name="LEGUMES"/>
@@ -1214,7 +1313,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1409,9 +1508,12 @@
       <c r="C6" t="s">
         <v>230</v>
       </c>
+      <c r="D6" t="s">
+        <v>236</v>
+      </c>
       <c r="E6" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/05-Aubergine.png</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
@@ -1431,9 +1533,12 @@
       <c r="C7" t="s">
         <v>230</v>
       </c>
+      <c r="D7" t="s">
+        <v>237</v>
+      </c>
       <c r="E7" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/05-Bette1.png</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -1453,9 +1558,12 @@
       <c r="C8" t="s">
         <v>230</v>
       </c>
+      <c r="D8" t="s">
+        <v>238</v>
+      </c>
       <c r="E8" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/06-Betterave.png</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
@@ -1475,9 +1583,12 @@
       <c r="C9" t="s">
         <v>230</v>
       </c>
+      <c r="D9" t="s">
+        <v>239</v>
+      </c>
       <c r="E9" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/07-Blette.png</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -1497,9 +1608,12 @@
       <c r="C10" t="s">
         <v>230</v>
       </c>
+      <c r="D10" t="s">
+        <v>240</v>
+      </c>
       <c r="E10" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/08-Brocoli.png</v>
       </c>
       <c r="G10" t="s">
         <v>24</v>
@@ -1519,9 +1633,12 @@
       <c r="C11" t="s">
         <v>230</v>
       </c>
+      <c r="D11" t="s">
+        <v>241</v>
+      </c>
       <c r="E11" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/09-Carotte.png</v>
       </c>
       <c r="G11" t="s">
         <v>27</v>
@@ -1541,9 +1658,12 @@
       <c r="C12" t="s">
         <v>230</v>
       </c>
+      <c r="D12" t="s">
+        <v>242</v>
+      </c>
       <c r="E12" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/10-Céleri.png</v>
       </c>
       <c r="G12" t="s">
         <v>30</v>
@@ -1563,9 +1683,12 @@
       <c r="C13" t="s">
         <v>230</v>
       </c>
+      <c r="D13" t="s">
+        <v>243</v>
+      </c>
       <c r="E13" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/11-Chou.png</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
@@ -1585,9 +1708,12 @@
       <c r="C14" t="s">
         <v>230</v>
       </c>
+      <c r="D14" t="s">
+        <v>244</v>
+      </c>
       <c r="E14" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/12-Chou-fleur.png</v>
       </c>
       <c r="G14" t="s">
         <v>36</v>
@@ -1607,9 +1733,12 @@
       <c r="C15" t="s">
         <v>230</v>
       </c>
+      <c r="D15" t="s">
+        <v>245</v>
+      </c>
       <c r="E15" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/13-Concombre.png</v>
       </c>
       <c r="G15" t="s">
         <v>39</v>
@@ -1629,9 +1758,12 @@
       <c r="C16" t="s">
         <v>230</v>
       </c>
+      <c r="D16" t="s">
+        <v>246</v>
+      </c>
       <c r="E16" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/14-Courge.png</v>
       </c>
       <c r="G16" t="s">
         <v>42</v>
@@ -1651,9 +1783,12 @@
       <c r="C17" t="s">
         <v>230</v>
       </c>
+      <c r="D17" t="s">
+        <v>247</v>
+      </c>
       <c r="E17" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/15 Courgette.png</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -1673,9 +1808,12 @@
       <c r="C18" t="s">
         <v>230</v>
       </c>
+      <c r="D18" t="s">
+        <v>248</v>
+      </c>
       <c r="E18" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/16-Cornichon.png</v>
       </c>
       <c r="G18" t="s">
         <v>64</v>
@@ -1695,9 +1833,12 @@
       <c r="C19" t="s">
         <v>230</v>
       </c>
+      <c r="D19" t="s">
+        <v>249</v>
+      </c>
       <c r="E19" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/17-Endive.png</v>
       </c>
       <c r="G19" t="s">
         <v>50</v>
@@ -1717,9 +1858,12 @@
       <c r="C20" t="s">
         <v>230</v>
       </c>
+      <c r="D20" t="s">
+        <v>250</v>
+      </c>
       <c r="E20" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/18-épinard.png</v>
       </c>
       <c r="G20" t="s">
         <v>53</v>
@@ -1739,9 +1883,12 @@
       <c r="C21" t="s">
         <v>230</v>
       </c>
+      <c r="D21" t="s">
+        <v>251</v>
+      </c>
       <c r="E21" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/19-Fenouil.png</v>
       </c>
       <c r="G21" t="s">
         <v>56</v>
@@ -1761,9 +1908,12 @@
       <c r="C22" t="s">
         <v>230</v>
       </c>
+      <c r="D22" t="s">
+        <v>252</v>
+      </c>
       <c r="E22" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/20-Fève.png</v>
       </c>
       <c r="G22" t="s">
         <v>59</v>
@@ -1783,9 +1933,12 @@
       <c r="C23" t="s">
         <v>230</v>
       </c>
+      <c r="D23" t="s">
+        <v>253</v>
+      </c>
       <c r="E23" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/21-Fraisier.png</v>
       </c>
       <c r="G23" t="s">
         <v>62</v>
@@ -1805,9 +1958,12 @@
       <c r="C24" t="s">
         <v>230</v>
       </c>
+      <c r="D24" t="s">
+        <v>254</v>
+      </c>
       <c r="E24" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/22-Haricot.png</v>
       </c>
       <c r="G24" t="s">
         <v>66</v>
@@ -1827,9 +1983,12 @@
       <c r="C25" t="s">
         <v>230</v>
       </c>
+      <c r="D25" t="s">
+        <v>255</v>
+      </c>
       <c r="E25" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/23-Laitue.png</v>
       </c>
       <c r="G25" t="s">
         <v>69</v>
@@ -1849,9 +2008,12 @@
       <c r="C26" t="s">
         <v>230</v>
       </c>
+      <c r="D26" t="s">
+        <v>256</v>
+      </c>
       <c r="E26" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/24-Mâche.png</v>
       </c>
       <c r="G26" t="s">
         <v>72</v>
@@ -1871,9 +2033,12 @@
       <c r="C27" t="s">
         <v>230</v>
       </c>
+      <c r="D27" t="s">
+        <v>257</v>
+      </c>
       <c r="E27" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/25-Maïs.png</v>
       </c>
       <c r="G27" t="s">
         <v>75</v>
@@ -1893,9 +2058,12 @@
       <c r="C28" t="s">
         <v>230</v>
       </c>
+      <c r="D28" t="s">
+        <v>258</v>
+      </c>
       <c r="E28" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/26-Melon.png</v>
       </c>
       <c r="G28" t="s">
         <v>78</v>
@@ -1915,9 +2083,12 @@
       <c r="C29" t="s">
         <v>230</v>
       </c>
+      <c r="D29" t="s">
+        <v>259</v>
+      </c>
       <c r="E29" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/27-Navet.png</v>
       </c>
       <c r="G29" t="s">
         <v>80</v>
@@ -1937,9 +2108,12 @@
       <c r="C30" t="s">
         <v>230</v>
       </c>
+      <c r="D30" t="s">
+        <v>260</v>
+      </c>
       <c r="E30" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/28-Oignon.png</v>
       </c>
       <c r="G30" t="s">
         <v>82</v>
@@ -1959,9 +2133,12 @@
       <c r="C31" t="s">
         <v>230</v>
       </c>
+      <c r="D31" t="s">
+        <v>261</v>
+      </c>
       <c r="E31" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/29-Panais.png</v>
       </c>
       <c r="G31" t="s">
         <v>85</v>
@@ -1981,9 +2158,12 @@
       <c r="C32" t="s">
         <v>230</v>
       </c>
+      <c r="D32" t="s">
+        <v>262</v>
+      </c>
       <c r="E32" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/30-petit-pois.png</v>
       </c>
       <c r="G32" t="s">
         <v>88</v>
@@ -2003,9 +2183,12 @@
       <c r="C33" t="s">
         <v>230</v>
       </c>
+      <c r="D33" t="s">
+        <v>263</v>
+      </c>
       <c r="E33" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/31-Piment.png</v>
       </c>
       <c r="G33" t="s">
         <v>91</v>
@@ -2025,9 +2208,12 @@
       <c r="C34" t="s">
         <v>230</v>
       </c>
+      <c r="D34" t="s">
+        <v>264</v>
+      </c>
       <c r="E34" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/32-Poireau.png</v>
       </c>
       <c r="G34" t="s">
         <v>94</v>
@@ -2047,9 +2233,12 @@
       <c r="C35" t="s">
         <v>230</v>
       </c>
+      <c r="D35" t="s">
+        <v>265</v>
+      </c>
       <c r="E35" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/33-pomme de terre.png</v>
       </c>
       <c r="G35" t="s">
         <v>97</v>
@@ -2069,9 +2258,12 @@
       <c r="C36" t="s">
         <v>230</v>
       </c>
+      <c r="D36" t="s">
+        <v>266</v>
+      </c>
       <c r="E36" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/34-Radis.png</v>
       </c>
       <c r="G36" t="s">
         <v>100</v>
@@ -2091,9 +2283,12 @@
       <c r="C37" t="s">
         <v>230</v>
       </c>
+      <c r="D37" t="s">
+        <v>267</v>
+      </c>
       <c r="E37" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/35-Salade.png</v>
       </c>
       <c r="G37" t="s">
         <v>103</v>
@@ -2113,9 +2308,12 @@
       <c r="C38" t="s">
         <v>230</v>
       </c>
+      <c r="D38" t="s">
+        <v>268</v>
+      </c>
       <c r="E38" t="str">
         <f>CONCATENATE(Table2[[#This Row],[IMAGE]],Table2[[#This Row],[IMAGE2]])</f>
-        <v>../</v>
+        <v>../images/Potager-all légumes/36-tomates.png</v>
       </c>
       <c r="G38" t="s">
         <v>106</v>
